--- a/report/Laptopdb.xlsx
+++ b/report/Laptopdb.xlsx
@@ -638,7 +638,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0</v>
+        <v>16.0</v>
       </c>
       <c r="F2" t="n">
         <v>10250.0</v>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="F4" t="n">
         <v>1200.0</v>
@@ -752,7 +752,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="F5" t="n">
         <v>1000.0</v>
@@ -866,7 +866,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>100.0</v>
+        <v>99.0</v>
       </c>
       <c r="F8" t="n">
         <v>9000.0</v>

--- a/report/Laptopdb.xlsx
+++ b/report/Laptopdb.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
   <si>
     <t>MALAPTOP</t>
   </si>
@@ -98,9 +98,6 @@
     <t>SSD 512GB + HDD 1TB</t>
   </si>
   <si>
-    <t>1002.jpg</t>
-  </si>
-  <si>
     <t>1003</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>SSD 128GB + HDD 1TB</t>
   </si>
   <si>
-    <t>1003.jpg</t>
-  </si>
-  <si>
     <t>1004</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>SSD 256GB</t>
   </si>
   <si>
-    <t>1004.jpg</t>
-  </si>
-  <si>
     <t>1005</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>SSD 512GB</t>
   </si>
   <si>
-    <t>1005.jpg</t>
-  </si>
-  <si>
     <t>1006</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>NVIDIA® GeForce® RTX 2060</t>
   </si>
   <si>
-    <t>1006.jpg</t>
-  </si>
-  <si>
     <t>1007</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>SSD 1TB</t>
   </si>
   <si>
-    <t>1007.jpg</t>
-  </si>
-  <si>
     <t>1008</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
     <t>16GB</t>
   </si>
   <si>
-    <t>1008.jpg</t>
-  </si>
-  <si>
     <t>1009</t>
   </si>
   <si>
@@ -221,27 +200,18 @@
     <t xml:space="preserve">Acer Predator Triton 900 </t>
   </si>
   <si>
-    <t>1009.jpg</t>
-  </si>
-  <si>
     <t>1010</t>
   </si>
   <si>
     <t xml:space="preserve">Acer Predator Helios 300 </t>
   </si>
   <si>
-    <t>1010.jpg</t>
-  </si>
-  <si>
     <t>1011</t>
   </si>
   <si>
     <t xml:space="preserve">Acer Nitro 5 </t>
   </si>
   <si>
-    <t>1011.jpg</t>
-  </si>
-  <si>
     <t>1012</t>
   </si>
   <si>
@@ -260,9 +230,6 @@
     <t>SSD 1TB + HDD 1TB</t>
   </si>
   <si>
-    <t>1012.jpg</t>
-  </si>
-  <si>
     <t>1013</t>
   </si>
   <si>
@@ -275,9 +242,6 @@
     <t>NVIDIA® GeForce® GTX 1080</t>
   </si>
   <si>
-    <t>1013.jpg</t>
-  </si>
-  <si>
     <t>1014</t>
   </si>
   <si>
@@ -287,18 +251,12 @@
     <t>Intel® Core™ i9 9900K</t>
   </si>
   <si>
-    <t>1014.jpg</t>
-  </si>
-  <si>
     <t>1015</t>
   </si>
   <si>
     <t xml:space="preserve">ASUS ROG STRIX SCAR II </t>
   </si>
   <si>
-    <t>1015.jpg</t>
-  </si>
-  <si>
     <t>1016</t>
   </si>
   <si>
@@ -311,9 +269,6 @@
     <t>NVIDIA® GeForce® RTX 2070</t>
   </si>
   <si>
-    <t>1016.jpg</t>
-  </si>
-  <si>
     <t>1017</t>
   </si>
   <si>
@@ -326,9 +281,6 @@
     <t>SSD 2TB</t>
   </si>
   <si>
-    <t>1017.jpg</t>
-  </si>
-  <si>
     <t>1018</t>
   </si>
   <si>
@@ -341,9 +293,6 @@
     <t>NVIDIA® GeForce® GTX 1650Ti</t>
   </si>
   <si>
-    <t>1018.jpg</t>
-  </si>
-  <si>
     <t>1019</t>
   </si>
   <si>
@@ -353,9 +302,6 @@
     <t>NVIDIA® GeForce® GTX 1050Ti</t>
   </si>
   <si>
-    <t>1019.jpg</t>
-  </si>
-  <si>
     <t>1020</t>
   </si>
   <si>
@@ -365,9 +311,6 @@
     <t xml:space="preserve"> NVIDIA Gefore GTX 1050Ti</t>
   </si>
   <si>
-    <t>1020.jpg</t>
-  </si>
-  <si>
     <t>1021</t>
   </si>
   <si>
@@ -377,9 +320,6 @@
     <t>SSD 1.5TB</t>
   </si>
   <si>
-    <t>1021.jpg</t>
-  </si>
-  <si>
     <t>1022</t>
   </si>
   <si>
@@ -389,9 +329,6 @@
     <t>NVIDIA Gefore GTX 1650</t>
   </si>
   <si>
-    <t>1022.jpg</t>
-  </si>
-  <si>
     <t>1023</t>
   </si>
   <si>
@@ -404,18 +341,12 @@
     <t>SSD 256GB + HDD 1TB</t>
   </si>
   <si>
-    <t>1023.jpg</t>
-  </si>
-  <si>
     <t>1024</t>
   </si>
   <si>
     <t>ASUS ROG Strix Hero III</t>
   </si>
   <si>
-    <t>1024.jpg</t>
-  </si>
-  <si>
     <t>1025</t>
   </si>
   <si>
@@ -428,9 +359,6 @@
     <t>18.4  FHD IPS (1920 x 1080)</t>
   </si>
   <si>
-    <t>1025.jpg</t>
-  </si>
-  <si>
     <t>1026</t>
   </si>
   <si>
@@ -443,9 +371,6 @@
     <t>14  FHD IPS (1920 x 1080)</t>
   </si>
   <si>
-    <t>1026.jpg</t>
-  </si>
-  <si>
     <t>1027</t>
   </si>
   <si>
@@ -461,9 +386,6 @@
     <t>SSD 1024GB</t>
   </si>
   <si>
-    <t>1027.jpg</t>
-  </si>
-  <si>
     <t>1028</t>
   </si>
   <si>
@@ -476,9 +398,6 @@
     <t>Intel® Iris® Plus Graphics</t>
   </si>
   <si>
-    <t>1028.jpg</t>
-  </si>
-  <si>
     <t>1029</t>
   </si>
   <si>
@@ -497,9 +416,6 @@
     <t>HDD 1TB</t>
   </si>
   <si>
-    <t>1029.jpg</t>
-  </si>
-  <si>
     <t>1030</t>
   </si>
   <si>
@@ -513,9 +429,6 @@
   </si>
   <si>
     <t>HDD 512GB</t>
-  </si>
-  <si>
-    <t>1030.jpg</t>
   </si>
 </sst>
 </file>
@@ -583,7 +496,7 @@
     <col min="9" max="9" width="29.234375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="25.5625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="23.43359375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="8.76953125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="7.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,7 +551,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>100.0</v>
       </c>
       <c r="F2" t="n">
         <v>10250.0</v>
@@ -697,97 +610,97 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
       <c r="E4" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="F4" t="n">
         <v>1200.0</v>
       </c>
       <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="F5" t="n">
         <v>1000.0</v>
       </c>
       <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v>100.0</v>
@@ -796,36 +709,36 @@
         <v>1400.0</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
         <v>100.0</v>
@@ -834,74 +747,74 @@
         <v>1650.0</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" t="n">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="F8" t="n">
         <v>9000.0</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
         <v>100.0</v>
@@ -910,36 +823,36 @@
         <v>2150.0</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E10" t="n">
         <v>100.0</v>
@@ -948,36 +861,36 @@
         <v>3350.0</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" t="n">
         <v>100.0</v>
@@ -986,36 +899,36 @@
         <v>1650.0</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>100.0</v>
@@ -1024,36 +937,36 @@
         <v>1250.0</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>100.0</v>
@@ -1062,36 +975,36 @@
         <v>10000.0</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
         <v>100.0</v>
@@ -1100,36 +1013,36 @@
         <v>2300.0</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E15" t="n">
         <v>100.0</v>
@@ -1138,13 +1051,13 @@
         <v>4350.0</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>
@@ -1153,21 +1066,21 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>100.0</v>
@@ -1179,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1191,21 +1104,21 @@
         <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>100.0</v>
@@ -1214,36 +1127,36 @@
         <v>2750.0</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E18" t="n">
         <v>100.0</v>
@@ -1252,36 +1165,36 @@
         <v>6500.0</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E19" t="n">
         <v>100.0</v>
@@ -1290,27 +1203,27 @@
         <v>1650.0</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -1319,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
         <v>100.0</v>
@@ -1331,24 +1244,24 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1357,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E21" t="n">
         <v>100.0</v>
@@ -1369,33 +1282,33 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
         <v>100.0</v>
@@ -1404,36 +1317,36 @@
         <v>5000.0</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E23" t="n">
         <v>100.0</v>
@@ -1442,36 +1355,36 @@
         <v>2600.0</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L23" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E24" t="n">
         <v>100.0</v>
@@ -1483,33 +1396,33 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E25" t="n">
         <v>100.0</v>
@@ -1518,36 +1431,36 @@
         <v>1923.0</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E26" t="n">
         <v>100.0</v>
@@ -1556,36 +1469,36 @@
         <v>7500.0</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E27" t="n">
         <v>100.0</v>
@@ -1594,36 +1507,36 @@
         <v>1650.0</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E28" t="n">
         <v>100.0</v>
@@ -1632,36 +1545,36 @@
         <v>1550.0</v>
       </c>
       <c r="G28" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E29" t="n">
         <v>100.0</v>
@@ -1670,36 +1583,36 @@
         <v>1400.0</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L29" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="E30" t="n">
         <v>100.0</v>
@@ -1708,36 +1621,36 @@
         <v>1000.0</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E31" t="n">
         <v>100.0</v>
@@ -1746,22 +1659,22 @@
         <v>1100.0</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="J31" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
